--- a/Electricidad/col/col.xlsx
+++ b/Electricidad/col/col.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Hub\ProyectoReg\Electricidad\col\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D62D034-62AE-47EE-9656-8BAB73FD5B13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63415ABF-6A85-44D3-AD2D-76D5AE56BDFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12319,7 +12319,7 @@
   <dimension ref="A1:C2163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B2074" sqref="B2074"/>
+      <selection activeCell="M1135" sqref="A1:C2163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24682,7 +24682,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="1124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
         <v>1084</v>
       </c>
@@ -24693,7 +24693,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
         <v>1085</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
         <v>1086</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
         <v>1087</v>
       </c>
@@ -24726,7 +24726,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
         <v>1088</v>
       </c>
@@ -24737,7 +24737,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
         <v>1089</v>
       </c>
@@ -24748,7 +24748,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
         <v>1090</v>
       </c>
@@ -24759,7 +24759,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
         <v>1091</v>
       </c>
@@ -24770,7 +24770,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
         <v>1092</v>
       </c>
@@ -24781,7 +24781,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
         <v>1093</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
         <v>1094</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
         <v>1095</v>
       </c>
@@ -24814,7 +24814,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
         <v>1096</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
         <v>1097</v>
       </c>
@@ -24836,7 +24836,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
         <v>1098</v>
       </c>
@@ -24847,7 +24847,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
         <v>1099</v>
       </c>
@@ -24858,7 +24858,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
         <v>1100</v>
       </c>
@@ -24869,7 +24869,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
         <v>1100</v>
       </c>
@@ -24880,7 +24880,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
         <v>1101</v>
       </c>
@@ -24891,7 +24891,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
         <v>1102</v>
       </c>
@@ -24902,7 +24902,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
         <v>1103</v>
       </c>
@@ -24913,7 +24913,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
         <v>1104</v>
       </c>
@@ -24924,7 +24924,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
         <v>1105</v>
       </c>
@@ -24935,7 +24935,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
         <v>1106</v>
       </c>
@@ -24946,7 +24946,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
         <v>1107</v>
       </c>
@@ -24957,7 +24957,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
         <v>1108</v>
       </c>
@@ -24968,7 +24968,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
         <v>1109</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
         <v>1110</v>
       </c>
@@ -24990,7 +24990,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
         <v>1111</v>
       </c>
@@ -25001,7 +25001,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
         <v>1112</v>
       </c>
@@ -25012,7 +25012,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
         <v>1113</v>
       </c>
@@ -25023,7 +25023,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
         <v>1114</v>
       </c>
@@ -25034,7 +25034,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
         <v>1115</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
         <v>1116</v>
       </c>
@@ -25056,7 +25056,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
         <v>1117</v>
       </c>
@@ -25067,7 +25067,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
         <v>1118</v>
       </c>
@@ -25078,7 +25078,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1160" t="s">
         <v>1119</v>
       </c>
@@ -25089,7 +25089,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
         <v>1120</v>
       </c>
@@ -25100,7 +25100,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
         <v>1121</v>
       </c>
@@ -25111,7 +25111,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
         <v>1122</v>
       </c>
@@ -25122,7 +25122,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
         <v>1122</v>
       </c>
@@ -25133,7 +25133,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
         <v>1123</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
         <v>1124</v>
       </c>
@@ -25155,7 +25155,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
         <v>1125</v>
       </c>
@@ -25166,7 +25166,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
         <v>1126</v>
       </c>
@@ -25177,7 +25177,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
         <v>1127</v>
       </c>
@@ -25188,7 +25188,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
         <v>1128</v>
       </c>
@@ -25199,7 +25199,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
         <v>1129</v>
       </c>
@@ -25210,7 +25210,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
         <v>1130</v>
       </c>
@@ -25221,7 +25221,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
         <v>1131</v>
       </c>
@@ -25232,7 +25232,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
         <v>1132</v>
       </c>
@@ -25243,7 +25243,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
         <v>1133</v>
       </c>
@@ -25254,7 +25254,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
         <v>1134</v>
       </c>
@@ -25265,7 +25265,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
         <v>1135</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
         <v>1136</v>
       </c>
@@ -25287,7 +25287,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
         <v>1137</v>
       </c>
@@ -25298,7 +25298,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
         <v>1138</v>
       </c>
@@ -25309,7 +25309,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
         <v>1139</v>
       </c>
@@ -25320,7 +25320,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
         <v>1140</v>
       </c>
@@ -25331,7 +25331,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
         <v>1141</v>
       </c>
@@ -25342,7 +25342,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
         <v>1142</v>
       </c>
@@ -25353,7 +25353,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
         <v>1143</v>
       </c>
@@ -25364,7 +25364,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
         <v>1144</v>
       </c>
@@ -25375,7 +25375,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
         <v>1144</v>
       </c>
@@ -25386,7 +25386,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
         <v>1145</v>
       </c>
@@ -25397,7 +25397,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
         <v>1146</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
         <v>1147</v>
       </c>
@@ -25419,7 +25419,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
         <v>1148</v>
       </c>
@@ -25430,7 +25430,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
         <v>1149</v>
       </c>
@@ -25441,7 +25441,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
         <v>1150</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
         <v>1151</v>
       </c>
@@ -25463,7 +25463,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
         <v>1152</v>
       </c>
@@ -25474,7 +25474,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
         <v>1153</v>
       </c>
@@ -25485,7 +25485,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
         <v>1154</v>
       </c>
@@ -25496,7 +25496,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
         <v>1155</v>
       </c>
@@ -25507,7 +25507,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
         <v>1156</v>
       </c>
@@ -25518,7 +25518,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
         <v>1157</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
         <v>1158</v>
       </c>
@@ -25540,7 +25540,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
         <v>1159</v>
       </c>
@@ -25551,7 +25551,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
         <v>1160</v>
       </c>
@@ -25562,7 +25562,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
         <v>1161</v>
       </c>
@@ -25573,7 +25573,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
         <v>1162</v>
       </c>
@@ -25584,7 +25584,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
         <v>1163</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
         <v>1164</v>
       </c>
@@ -25606,7 +25606,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
         <v>1165</v>
       </c>
@@ -25617,7 +25617,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
         <v>1166</v>
       </c>
@@ -25628,7 +25628,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
         <v>1167</v>
       </c>
@@ -25639,7 +25639,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
         <v>1168</v>
       </c>
@@ -25650,7 +25650,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
         <v>1168</v>
       </c>
@@ -25661,7 +25661,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
         <v>1169</v>
       </c>
@@ -25672,7 +25672,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
         <v>1170</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
         <v>1171</v>
       </c>
@@ -25694,7 +25694,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
         <v>1172</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
         <v>1173</v>
       </c>
@@ -25716,7 +25716,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
         <v>1174</v>
       </c>
@@ -25727,7 +25727,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
         <v>1175</v>
       </c>
@@ -25738,7 +25738,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
         <v>1176</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
         <v>1177</v>
       </c>
@@ -25760,7 +25760,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
         <v>1178</v>
       </c>
@@ -25771,7 +25771,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
         <v>1179</v>
       </c>
@@ -25782,7 +25782,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
         <v>1180</v>
       </c>
@@ -25793,7 +25793,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
         <v>1181</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
         <v>1182</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
         <v>1183</v>
       </c>
@@ -25826,7 +25826,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1228" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
         <v>1184</v>
       </c>
@@ -25837,7 +25837,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1229" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
         <v>1185</v>
       </c>
@@ -25848,7 +25848,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1230" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
         <v>1186</v>
       </c>
@@ -25859,7 +25859,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1231" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
         <v>1187</v>
       </c>
@@ -25870,7 +25870,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
         <v>1188</v>
       </c>
@@ -25881,7 +25881,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
         <v>1188</v>
       </c>
@@ -25892,7 +25892,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
         <v>1189</v>
       </c>
@@ -25903,7 +25903,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
         <v>1190</v>
       </c>
@@ -25914,7 +25914,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1236" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
         <v>1191</v>
       </c>
@@ -25925,7 +25925,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1237" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
         <v>1192</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
         <v>1193</v>
       </c>
@@ -25947,7 +25947,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
         <v>1194</v>
       </c>
@@ -25958,7 +25958,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
         <v>1195</v>
       </c>
@@ -25969,7 +25969,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
         <v>1196</v>
       </c>
@@ -25980,7 +25980,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
         <v>1197</v>
       </c>
@@ -25991,7 +25991,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
         <v>1198</v>
       </c>
@@ -26002,7 +26002,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
         <v>1199</v>
       </c>
@@ -26013,7 +26013,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1245" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
         <v>1200</v>
       </c>
@@ -26024,7 +26024,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
         <v>1201</v>
       </c>
@@ -26035,7 +26035,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
         <v>1202</v>
       </c>
@@ -26046,7 +26046,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
         <v>1203</v>
       </c>
@@ -26057,7 +26057,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
         <v>1204</v>
       </c>
@@ -26068,7 +26068,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1250" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
         <v>1205</v>
       </c>
@@ -26079,7 +26079,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1251" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
         <v>1206</v>
       </c>
@@ -26090,7 +26090,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
         <v>1207</v>
       </c>
@@ -26101,7 +26101,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
         <v>1208</v>
       </c>
@@ -26112,7 +26112,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
         <v>1209</v>
       </c>
@@ -26123,7 +26123,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
         <v>1209</v>
       </c>
@@ -26134,7 +26134,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
         <v>1210</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1257" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
         <v>1211</v>
       </c>
@@ -26156,7 +26156,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
         <v>1212</v>
       </c>
@@ -26167,7 +26167,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1259" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
         <v>1213</v>
       </c>
@@ -26178,7 +26178,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
         <v>1214</v>
       </c>
@@ -26189,7 +26189,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
         <v>1215</v>
       </c>
@@ -26200,7 +26200,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
         <v>1216</v>
       </c>
@@ -26211,7 +26211,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1263" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1263" t="s">
         <v>1217</v>
       </c>
@@ -26222,7 +26222,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
         <v>1218</v>
       </c>
@@ -26233,7 +26233,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
         <v>1219</v>
       </c>
@@ -26244,7 +26244,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
         <v>1220</v>
       </c>
@@ -26255,7 +26255,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
         <v>1221</v>
       </c>
@@ -26266,7 +26266,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
         <v>1222</v>
       </c>
@@ -26277,7 +26277,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
         <v>1223</v>
       </c>
@@ -26288,7 +26288,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1270" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
         <v>1224</v>
       </c>
@@ -26299,7 +26299,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="1271" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
         <v>1225</v>
       </c>
@@ -35011,7 +35011,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="2063" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2063" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2063" t="s">
         <v>1989</v>
       </c>
@@ -35022,7 +35022,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2064" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2064" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2064" t="s">
         <v>1990</v>
       </c>
@@ -35033,7 +35033,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2065" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2065" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2065" t="s">
         <v>1991</v>
       </c>
@@ -35044,7 +35044,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2066" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2066" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2066" t="s">
         <v>1992</v>
       </c>
@@ -35055,7 +35055,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2067" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2067" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2067" t="s">
         <v>1993</v>
       </c>
@@ -35066,7 +35066,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2068" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2068" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2068" t="s">
         <v>1994</v>
       </c>
@@ -35077,7 +35077,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2069" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2069" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2069" t="s">
         <v>1995</v>
       </c>
@@ -35088,7 +35088,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2070" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2070" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2070" t="s">
         <v>1996</v>
       </c>
@@ -35099,7 +35099,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2071" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2071" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2071" t="s">
         <v>1997</v>
       </c>
@@ -35110,7 +35110,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2072" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2072" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2072" t="s">
         <v>1997</v>
       </c>
@@ -35121,7 +35121,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2073" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2073" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2073" t="s">
         <v>1998</v>
       </c>
@@ -35132,7 +35132,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2074" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2074" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2074" t="s">
         <v>1999</v>
       </c>
@@ -35143,7 +35143,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2075" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2075" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2075" t="s">
         <v>2000</v>
       </c>
@@ -35154,7 +35154,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2076" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2076" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2076" t="s">
         <v>2001</v>
       </c>
@@ -35165,7 +35165,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2077" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2077" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2077" t="s">
         <v>2002</v>
       </c>
@@ -35176,7 +35176,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2078" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2078" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2078" t="s">
         <v>2003</v>
       </c>
@@ -35187,7 +35187,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2079" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2079" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2079" t="s">
         <v>2004</v>
       </c>
@@ -35198,7 +35198,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2080" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2080" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2080" t="s">
         <v>2005</v>
       </c>
@@ -35209,7 +35209,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2081" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2081" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2081" t="s">
         <v>2006</v>
       </c>
@@ -35220,7 +35220,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2082" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2082" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2082" t="s">
         <v>2007</v>
       </c>
@@ -35231,7 +35231,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2083" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2083" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2083" t="s">
         <v>2008</v>
       </c>
@@ -35242,7 +35242,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2084" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2084" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2084" t="s">
         <v>2009</v>
       </c>
@@ -35253,7 +35253,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2085" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2085" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2085" t="s">
         <v>2010</v>
       </c>
@@ -35264,7 +35264,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2086" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2086" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2086" t="s">
         <v>2011</v>
       </c>
@@ -35275,7 +35275,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2087" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2087" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2087" t="s">
         <v>2012</v>
       </c>
@@ -35286,7 +35286,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2088" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2088" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2088" t="s">
         <v>2013</v>
       </c>
@@ -35297,7 +35297,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2089" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2089" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2089" t="s">
         <v>2014</v>
       </c>
@@ -35308,7 +35308,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2090" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2090" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2090" t="s">
         <v>2015</v>
       </c>
@@ -35319,7 +35319,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2091" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2091" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2091" t="s">
         <v>2016</v>
       </c>
@@ -35330,7 +35330,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2092" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2092" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2092" t="s">
         <v>2017</v>
       </c>
@@ -35341,7 +35341,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2093" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2093" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2093" t="s">
         <v>2018</v>
       </c>
@@ -35352,7 +35352,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2094" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2094" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2094" t="s">
         <v>2019</v>
       </c>
@@ -35363,7 +35363,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2095" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2095" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2095" t="s">
         <v>2020</v>
       </c>
@@ -35374,7 +35374,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2096" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2096" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2096" t="s">
         <v>2021</v>
       </c>
@@ -35385,7 +35385,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2097" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2097" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2097" t="s">
         <v>2022</v>
       </c>
@@ -35396,7 +35396,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2098" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2098" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2098" t="s">
         <v>2023</v>
       </c>
@@ -35407,7 +35407,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2099" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2099" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2099" t="s">
         <v>2023</v>
       </c>
@@ -35418,7 +35418,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2100" t="s">
         <v>2024</v>
       </c>
@@ -35429,7 +35429,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2101" t="s">
         <v>2025</v>
       </c>
@@ -35440,7 +35440,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2102" t="s">
         <v>2026</v>
       </c>
@@ -35451,7 +35451,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2103" t="s">
         <v>2027</v>
       </c>
@@ -35462,7 +35462,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2104" t="s">
         <v>2028</v>
       </c>
@@ -35473,7 +35473,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2105" t="s">
         <v>2029</v>
       </c>
@@ -35484,7 +35484,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2106" t="s">
         <v>2030</v>
       </c>
@@ -35495,7 +35495,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2107" t="s">
         <v>2031</v>
       </c>
@@ -35506,7 +35506,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2108" t="s">
         <v>2032</v>
       </c>
@@ -35517,7 +35517,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2109" t="s">
         <v>2033</v>
       </c>
@@ -35528,7 +35528,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2110" t="s">
         <v>2034</v>
       </c>
@@ -35539,7 +35539,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2111" t="s">
         <v>2035</v>
       </c>
@@ -35550,7 +35550,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2112" t="s">
         <v>2036</v>
       </c>
@@ -35561,7 +35561,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2113" t="s">
         <v>2037</v>
       </c>
@@ -35572,7 +35572,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2114" t="s">
         <v>2038</v>
       </c>
@@ -35583,7 +35583,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2115" t="s">
         <v>2039</v>
       </c>
@@ -35594,7 +35594,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2116" t="s">
         <v>2040</v>
       </c>
@@ -35605,7 +35605,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2117" t="s">
         <v>2041</v>
       </c>
@@ -35616,7 +35616,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2118" t="s">
         <v>2042</v>
       </c>
@@ -35627,7 +35627,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2119" t="s">
         <v>2043</v>
       </c>
@@ -35638,7 +35638,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2120" t="s">
         <v>2044</v>
       </c>
@@ -35649,7 +35649,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2121" t="s">
         <v>2045</v>
       </c>
@@ -35660,7 +35660,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2122" t="s">
         <v>2046</v>
       </c>
@@ -35671,7 +35671,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2123" t="s">
         <v>2047</v>
       </c>
@@ -35682,7 +35682,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2124" t="s">
         <v>2048</v>
       </c>
@@ -35693,7 +35693,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2125" t="s">
         <v>2049</v>
       </c>
@@ -35704,7 +35704,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2126" t="s">
         <v>2049</v>
       </c>
@@ -35715,7 +35715,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2127" t="s">
         <v>2050</v>
       </c>
@@ -35726,7 +35726,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2128" t="s">
         <v>2051</v>
       </c>
@@ -35737,7 +35737,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2129" t="s">
         <v>2052</v>
       </c>
@@ -35748,7 +35748,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2130" t="s">
         <v>2053</v>
       </c>
@@ -35759,7 +35759,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2131" t="s">
         <v>2054</v>
       </c>
@@ -35770,7 +35770,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2132" t="s">
         <v>2055</v>
       </c>
@@ -35781,7 +35781,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2133" t="s">
         <v>2056</v>
       </c>
@@ -35792,7 +35792,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2134" t="s">
         <v>2057</v>
       </c>
@@ -35803,7 +35803,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2135" t="s">
         <v>2058</v>
       </c>
@@ -35814,7 +35814,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2136" t="s">
         <v>2059</v>
       </c>
@@ -35825,7 +35825,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2137" t="s">
         <v>2060</v>
       </c>
@@ -35836,7 +35836,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2138" t="s">
         <v>2061</v>
       </c>
@@ -35847,7 +35847,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2139" t="s">
         <v>2062</v>
       </c>
@@ -35858,7 +35858,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2140" t="s">
         <v>2063</v>
       </c>
@@ -35869,7 +35869,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2141" t="s">
         <v>2064</v>
       </c>
@@ -35880,7 +35880,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2142" t="s">
         <v>2065</v>
       </c>
@@ -35891,7 +35891,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2143" t="s">
         <v>2066</v>
       </c>
@@ -35902,7 +35902,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2144" t="s">
         <v>2067</v>
       </c>
@@ -35913,7 +35913,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2145" t="s">
         <v>2068</v>
       </c>
@@ -35924,7 +35924,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2146" t="s">
         <v>2069</v>
       </c>
@@ -35935,7 +35935,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2147" t="s">
         <v>2070</v>
       </c>
@@ -35946,7 +35946,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2148" t="s">
         <v>2071</v>
       </c>
@@ -35957,7 +35957,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2149" t="s">
         <v>2072</v>
       </c>
@@ -35968,7 +35968,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2150" t="s">
         <v>2073</v>
       </c>
@@ -35979,7 +35979,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2151" t="s">
         <v>2074</v>
       </c>
@@ -35990,7 +35990,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2152" t="s">
         <v>2074</v>
       </c>
@@ -36001,7 +36001,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2153" t="s">
         <v>2075</v>
       </c>
@@ -36012,7 +36012,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2154" t="s">
         <v>2076</v>
       </c>
@@ -36023,7 +36023,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2155" t="s">
         <v>2077</v>
       </c>
@@ -36034,7 +36034,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2156" t="s">
         <v>2078</v>
       </c>
@@ -36045,7 +36045,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2157" t="s">
         <v>2079</v>
       </c>
@@ -36056,7 +36056,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2158" t="s">
         <v>2080</v>
       </c>
@@ -36067,7 +36067,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2159" t="s">
         <v>2081</v>
       </c>
@@ -36078,7 +36078,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2160" t="s">
         <v>2082</v>
       </c>
@@ -36089,7 +36089,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2161" t="s">
         <v>2083</v>
       </c>
@@ -36100,7 +36100,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2162" t="s">
         <v>2084</v>
       </c>
@@ -36111,7 +36111,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2163" t="s">
         <v>2085</v>
       </c>
@@ -36126,7 +36126,7 @@
   <autoFilter ref="A1:C2163" xr:uid="{EC177B98-778D-4ED7-96CC-DF2D823021F3}">
     <filterColumn colId="2">
       <filters>
-        <filter val="2000"/>
+        <filter val="2010"/>
       </filters>
     </filterColumn>
   </autoFilter>
